--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2003.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2003.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16031544063854</v>
+        <v>0.9618077874183655</v>
       </c>
       <c r="B1">
-        <v>2.263356960880215</v>
+        <v>3.171871662139893</v>
       </c>
       <c r="C1">
-        <v>7.995974252850247</v>
+        <v>6.808313846588135</v>
       </c>
       <c r="D1">
-        <v>2.498537234280482</v>
+        <v>1.952882528305054</v>
       </c>
       <c r="E1">
-        <v>1.224513938386601</v>
+        <v>1.362452983856201</v>
       </c>
     </row>
   </sheetData>
